--- a/Panel x SKU.xlsx
+++ b/Panel x SKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/Cockpit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC104869B9DF585A5BDE5907" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3C5EFED-E98F-41BD-9DC1-2390D49B685E}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC104869B9DF585A5BDE5907" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6B4EB7C-6FDB-499F-872B-687CE1538291}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="134">
   <si>
     <t xml:space="preserve">QUAKER BARRAS MOUSSE DE CHOCO 20X156G   </t>
   </si>
@@ -408,6 +408,36 @@
   </si>
   <si>
     <t>% Vta</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
+  <si>
+    <t>Quaker</t>
+  </si>
+  <si>
+    <t>Twistos</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>Cheetos</t>
+  </si>
+  <si>
+    <t>Doritos</t>
+  </si>
+  <si>
+    <t>Lays</t>
+  </si>
+  <si>
+    <t>Pehuamar</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>Tostitos</t>
   </si>
 </sst>
 </file>
@@ -475,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -483,6 +513,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,15 +794,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="L111" sqref="L111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -802,8 +838,11 @@
       <c r="J1" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>300030738</v>
       </c>
@@ -824,8 +863,11 @@
       <c r="J2" s="2">
         <v>1.1303442597748661</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>300051958</v>
       </c>
@@ -853,8 +895,11 @@
       <c r="J3">
         <v>0.68721034156990346</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>300052628</v>
       </c>
@@ -882,8 +927,11 @@
       <c r="J4">
         <v>0.76326593259835751</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>300052629</v>
       </c>
@@ -911,8 +959,11 @@
       <c r="J5">
         <v>0.44558217623521224</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>300058444</v>
       </c>
@@ -940,8 +991,11 @@
       <c r="J6">
         <v>0.56366288667349296</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>300058445</v>
       </c>
@@ -969,8 +1023,11 @@
       <c r="J7">
         <v>0.48841157248213757</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>300051955</v>
       </c>
@@ -998,8 +1055,11 @@
       <c r="J8">
         <v>1.2124463498295346</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>300058446</v>
       </c>
@@ -1027,8 +1087,11 @@
       <c r="J9">
         <v>1.1287723978447108</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>300052695</v>
       </c>
@@ -1056,8 +1119,11 @@
       <c r="J10">
         <v>0.66382280235111957</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>300052696</v>
       </c>
@@ -1085,8 +1151,11 @@
       <c r="J11">
         <v>0.71579688145030551</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>300052694</v>
       </c>
@@ -1114,8 +1183,11 @@
       <c r="J12">
         <v>0.65379991555785666</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>300052867</v>
       </c>
@@ -1143,8 +1215,11 @@
       <c r="J13">
         <v>0.6885673541147711</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>300052698</v>
       </c>
@@ -1172,8 +1247,11 @@
       <c r="J14">
         <v>0.60992777989376556</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>300052697</v>
       </c>
@@ -1201,8 +1279,11 @@
       <c r="J15">
         <v>0.66852590643390475</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>300058397</v>
       </c>
@@ -1230,8 +1311,11 @@
       <c r="J16">
         <v>0.60801533585310974</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>300058394</v>
       </c>
@@ -1259,8 +1343,11 @@
       <c r="J17">
         <v>0.65296242850246999</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>300052023</v>
       </c>
@@ -1288,8 +1375,11 @@
       <c r="J18">
         <v>0.44613725614435723</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>300058395</v>
       </c>
@@ -1317,8 +1407,11 @@
       <c r="J19">
         <v>0.64112569045764833</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>300054823</v>
       </c>
@@ -1346,8 +1439,11 @@
       <c r="J20">
         <v>0.62164711479696633</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>300052892</v>
       </c>
@@ -1375,8 +1471,11 @@
       <c r="J21">
         <v>0.66792199838924671</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>300050336</v>
       </c>
@@ -1404,8 +1503,11 @@
       <c r="J22">
         <v>0.58346289145997676</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>300052894</v>
       </c>
@@ -1433,8 +1535,11 @@
       <c r="J23">
         <v>0.64980030024044066</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>300059433</v>
       </c>
@@ -1462,8 +1567,11 @@
       <c r="J24">
         <v>0.74065254732089814</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>300054822</v>
       </c>
@@ -1491,8 +1599,11 @@
       <c r="J25">
         <v>0.86006351012008686</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>300058257</v>
       </c>
@@ -1520,8 +1631,11 @@
       <c r="J26">
         <v>4.1802568111538166E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>300058259</v>
       </c>
@@ -1549,8 +1663,11 @@
       <c r="J27">
         <v>0.38775039393555522</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>300054821</v>
       </c>
@@ -1578,8 +1695,11 @@
       <c r="J28">
         <v>1.0022106605584302</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>300058253</v>
       </c>
@@ -1595,8 +1715,11 @@
       <c r="J29">
         <v>1.2376222630926588</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>300054910</v>
       </c>
@@ -1624,8 +1747,11 @@
       <c r="J30">
         <v>0.6177971777351452</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>300059545</v>
       </c>
@@ -1653,8 +1779,11 @@
       <c r="J31">
         <v>0.76622119588615478</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>300060190</v>
       </c>
@@ -1682,8 +1811,11 @@
       <c r="J32">
         <v>0.4701290560392592</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>300060191</v>
       </c>
@@ -1711,8 +1843,11 @@
       <c r="J33">
         <v>4.8599735851772664E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>300060192</v>
       </c>
@@ -1740,8 +1875,11 @@
       <c r="J34">
         <v>0.49182615567156501</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>300059547</v>
       </c>
@@ -1769,8 +1907,11 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>300059753</v>
       </c>
@@ -1798,8 +1939,11 @@
       <c r="J36">
         <v>0.65264267677709986</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>300059867</v>
       </c>
@@ -1827,8 +1971,11 @@
       <c r="J37">
         <v>0.19329295075589148</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>300052775</v>
       </c>
@@ -1856,8 +2003,11 @@
       <c r="J38">
         <v>0.85880082911031774</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>300052773</v>
       </c>
@@ -1885,8 +2035,11 @@
       <c r="J39">
         <v>0.74427387636859121</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>300052777</v>
       </c>
@@ -1914,8 +2067,11 @@
       <c r="J40">
         <v>0.70926884971389337</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>300051988</v>
       </c>
@@ -1943,8 +2099,11 @@
       <c r="J41">
         <v>0.64542652108035148</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>300052778</v>
       </c>
@@ -1957,8 +2116,11 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>300060195</v>
       </c>
@@ -1986,8 +2148,11 @@
       <c r="J43">
         <v>0.67818868438796376</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>300052776</v>
       </c>
@@ -2015,8 +2180,11 @@
       <c r="J44">
         <v>0.71154237476059279</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>300059432</v>
       </c>
@@ -2044,8 +2212,11 @@
       <c r="J45">
         <v>0.67343304373334623</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>300060193</v>
       </c>
@@ -2073,8 +2244,11 @@
       <c r="J46">
         <v>0.4988203236536658</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>300060194</v>
       </c>
@@ -2102,8 +2276,11 @@
       <c r="J47">
         <v>1.5301362115224572E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>300060231</v>
       </c>
@@ -2131,8 +2308,11 @@
       <c r="J48">
         <v>1.3130099200801575</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>300052774</v>
       </c>
@@ -2148,8 +2328,11 @@
       <c r="J49">
         <v>0.90501389657353504</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>300059431</v>
       </c>
@@ -2177,8 +2360,11 @@
       <c r="J50">
         <v>0.96479094737483684</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>300060080</v>
       </c>
@@ -2206,8 +2392,11 @@
       <c r="J51">
         <v>0.30759323398187405</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>300060230</v>
       </c>
@@ -2235,8 +2424,11 @@
       <c r="J52">
         <v>0.69101831586036977</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>300052772</v>
       </c>
@@ -2264,8 +2456,11 @@
       <c r="J53">
         <v>0.73822377662822691</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>300054967</v>
       </c>
@@ -2293,8 +2488,11 @@
       <c r="J54">
         <v>0.72675939714533411</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>300056674</v>
       </c>
@@ -2322,8 +2520,11 @@
       <c r="J55">
         <v>0.82388388206340823</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>300058328</v>
       </c>
@@ -2351,8 +2552,11 @@
       <c r="J56">
         <v>0.71319022074156957</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>300058651</v>
       </c>
@@ -2380,8 +2584,11 @@
       <c r="J57">
         <v>-0.42365195253504767</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>300060232</v>
       </c>
@@ -2409,8 +2616,11 @@
       <c r="J58">
         <v>0.67361102133754802</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>300059430</v>
       </c>
@@ -2438,8 +2648,11 @@
       <c r="J59">
         <v>1.201463971496729</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>300060098</v>
       </c>
@@ -2467,8 +2680,11 @@
       <c r="J60">
         <v>0.62155280525896173</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>300060099</v>
       </c>
@@ -2496,8 +2712,11 @@
       <c r="J61">
         <v>0.5020843366905049</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>300060233</v>
       </c>
@@ -2525,8 +2744,11 @@
       <c r="J62">
         <v>0.58064923459445272</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>300059801</v>
       </c>
@@ -2554,8 +2776,11 @@
       <c r="J63">
         <v>0.52564569536609784</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>300059811</v>
       </c>
@@ -2583,8 +2808,11 @@
       <c r="J64">
         <v>0.47517492317920151</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>300052759</v>
       </c>
@@ -2612,8 +2840,11 @@
       <c r="J65">
         <v>0.64362832099387268</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>300052758</v>
       </c>
@@ -2641,8 +2872,11 @@
       <c r="J66">
         <v>0.86677036895338466</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>300060234</v>
       </c>
@@ -2670,8 +2904,11 @@
       <c r="J67">
         <v>4.2229164425770203E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>300052739</v>
       </c>
@@ -2699,8 +2936,11 @@
       <c r="J68">
         <v>0.75248804977128059</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>300052656</v>
       </c>
@@ -2728,8 +2968,11 @@
       <c r="J69">
         <v>0.91907063578739145</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>300051086</v>
       </c>
@@ -2757,8 +3000,11 @@
       <c r="J70">
         <v>0.74620293053121201</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>300052790</v>
       </c>
@@ -2774,8 +3020,11 @@
       <c r="J71">
         <v>0.92769184329554244</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>300052657</v>
       </c>
@@ -2803,8 +3052,11 @@
       <c r="J72">
         <v>0.55765693461977783</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>300052738</v>
       </c>
@@ -2832,8 +3084,11 @@
       <c r="J73">
         <v>0.75319716537494741</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>300060093</v>
       </c>
@@ -2861,8 +3116,11 @@
       <c r="J74">
         <v>7.5149330625630367E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>300060091</v>
       </c>
@@ -2890,8 +3148,11 @@
       <c r="J75">
         <v>3.1199812057447674E-4</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>300060092</v>
       </c>
@@ -2919,8 +3180,11 @@
       <c r="J76">
         <v>1.7154875595916892E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>300060094</v>
       </c>
@@ -2948,8 +3212,11 @@
       <c r="J77">
         <v>0.19699235940251483</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>300052666</v>
       </c>
@@ -2977,8 +3244,11 @@
       <c r="J78">
         <v>0.64970780224024816</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>300052664</v>
       </c>
@@ -3006,8 +3276,11 @@
       <c r="J79">
         <v>0.66116388317625108</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>300052667</v>
       </c>
@@ -3035,8 +3308,11 @@
       <c r="J80">
         <v>0.57417153017864309</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>300052665</v>
       </c>
@@ -3064,8 +3340,11 @@
       <c r="J81">
         <v>0.56046371434398412</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>300060096</v>
       </c>
@@ -3093,8 +3372,11 @@
       <c r="J82">
         <v>0.56812526746392211</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>300060097</v>
       </c>
@@ -3122,8 +3404,11 @@
       <c r="J83">
         <v>0.18624817590555051</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>300052720</v>
       </c>
@@ -3151,8 +3436,11 @@
       <c r="J84">
         <v>0.70041299359065445</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>300052669</v>
       </c>
@@ -3180,8 +3468,11 @@
       <c r="J85">
         <v>0.68284580717545995</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>300052026</v>
       </c>
@@ -3209,8 +3500,11 @@
       <c r="J86">
         <v>0.73242571910294563</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>300052721</v>
       </c>
@@ -3238,8 +3532,11 @@
       <c r="J87">
         <v>0.73370195317926656</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>300060095</v>
       </c>
@@ -3267,8 +3564,11 @@
       <c r="J88">
         <v>0.53526253345924224</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>300060196</v>
       </c>
@@ -3296,8 +3596,11 @@
       <c r="J89">
         <v>0.33517319835690473</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>300060197</v>
       </c>
@@ -3325,8 +3628,11 @@
       <c r="J90">
         <v>0.39865654297357633</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>300060198</v>
       </c>
@@ -3354,8 +3660,11 @@
       <c r="J91">
         <v>0.1447440402061087</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>300052642</v>
       </c>
@@ -3383,8 +3692,11 @@
       <c r="J92">
         <v>0.6617620398731674</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>300052622</v>
       </c>
@@ -3412,8 +3724,11 @@
       <c r="J93">
         <v>0.64531311351659093</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>300052641</v>
       </c>
@@ -3441,8 +3756,11 @@
       <c r="J94">
         <v>0.76877983025393615</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>300052643</v>
       </c>
@@ -3470,8 +3788,11 @@
       <c r="J95">
         <v>0.87600750780146508</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>300052621</v>
       </c>
@@ -3499,8 +3820,11 @@
       <c r="J96">
         <v>0.59665923619578642</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>300047036</v>
       </c>
@@ -3528,8 +3852,11 @@
       <c r="J97">
         <v>0.67348762137680374</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>300047496</v>
       </c>
@@ -3557,8 +3884,11 @@
       <c r="J98">
         <v>0.74805458566507688</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>300053042</v>
       </c>
@@ -3586,8 +3916,11 @@
       <c r="J99">
         <v>0.65607779583856762</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>300053043</v>
       </c>
@@ -3615,8 +3948,11 @@
       <c r="J100">
         <v>0.65890426498412691</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>300033488</v>
       </c>
@@ -3644,8 +3980,11 @@
       <c r="J101">
         <v>0.71001607341629147</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>300052821</v>
       </c>
@@ -3673,8 +4012,11 @@
       <c r="J102">
         <v>0.69472648689669081</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>300052820</v>
       </c>
@@ -3702,8 +4044,11 @@
       <c r="J103">
         <v>0.59120375807210246</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>300033489</v>
       </c>
@@ -3731,8 +4076,11 @@
       <c r="J104">
         <v>0.7552037379239388</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>300052756</v>
       </c>
@@ -3760,8 +4108,11 @@
       <c r="J105">
         <v>0.72811849490064595</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>300052757</v>
       </c>
@@ -3789,8 +4140,11 @@
       <c r="J106">
         <v>0.56101670642891466</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>300058720</v>
       </c>
@@ -3818,8 +4172,11 @@
       <c r="J107">
         <v>0.54879558537047102</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>300058721</v>
       </c>
@@ -3847,8 +4204,11 @@
       <c r="J108">
         <v>0.68433640172259635</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>300058740</v>
       </c>
@@ -3876,8 +4236,11 @@
       <c r="J109">
         <v>0.65459788863513668</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>300055380</v>
       </c>
@@ -3893,8 +4256,11 @@
       <c r="J110">
         <v>1.0090206819980063</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>300055184</v>
       </c>
@@ -3922,8 +4288,11 @@
       <c r="J111">
         <v>0.6996989821012487</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>300055183</v>
       </c>
@@ -3951,8 +4320,11 @@
       <c r="J112">
         <v>0.96784799957220113</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>300060199</v>
       </c>
@@ -3980,8 +4352,11 @@
       <c r="J113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>300060200</v>
       </c>
@@ -4009,8 +4384,11 @@
       <c r="J114">
         <v>0.49104052181297175</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>300060201</v>
       </c>
@@ -4037,6 +4415,9 @@
       </c>
       <c r="J115">
         <v>1.0728714940796489</v>
+      </c>
+      <c r="K115" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Panel x SKU.xlsx
+++ b/Panel x SKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/Cockpit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC104869B9DF585A5BDE5907" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6B4EB7C-6FDB-499F-872B-687CE1538291}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC104869B9DF585A5BDE5907" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9ACA714-E093-46E4-A8D2-9BEE096E394E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="136">
   <si>
     <t xml:space="preserve">QUAKER BARRAS MOUSSE DE CHOCO 20X156G   </t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>Tostitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUAKER BARRA CHISPAS DE CHOCO 20X156G   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUAKER BARRA FRUTILLA CON CREMA 20X180G </t>
   </si>
 </sst>
 </file>
@@ -505,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -514,6 +520,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,16 +803,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="L111" sqref="L111"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -844,24 +855,32 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>300030738</v>
+        <v>300030736</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C2" s="2">
+        <v>21.331345954074614</v>
+      </c>
+      <c r="D2" s="2">
+        <v>21.331345954074614</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
       <c r="G2" s="2">
-        <v>2.4000000000000004</v>
+        <v>4.0000000000000009</v>
       </c>
       <c r="H2" s="2">
-        <v>2.2771823519612253</v>
+        <v>4.1399109413581563</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2">
-        <v>1.1303442597748661</v>
+        <v>0.55166404117156054</v>
       </c>
       <c r="K2" t="s">
         <v>125</v>
@@ -869,31 +888,31 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>300051958</v>
+        <v>300030737</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="C3">
-        <v>1.6362296054841898</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.6362296054841898</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.54540986849473005</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>40.736897892962411</v>
+        <v>9.6</v>
       </c>
       <c r="H3">
-        <v>41.22833765172318</v>
+        <v>8.0026897342975296</v>
       </c>
       <c r="J3">
-        <v>0.68721034156990346</v>
+        <v>0.68107101249233071</v>
       </c>
       <c r="K3" t="s">
         <v>125</v>
@@ -901,31 +920,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>300052628</v>
+        <v>300030738</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>7.7336912946951957</v>
-      </c>
-      <c r="D4">
-        <v>7.7336912946951957</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7.9999999999999964</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="H4">
-        <v>8.0533930671769998</v>
+        <v>2.2771823519612253</v>
       </c>
       <c r="J4">
-        <v>0.76326593259835751</v>
+        <v>1.1303442597748661</v>
       </c>
       <c r="K4" t="s">
         <v>125</v>
@@ -933,31 +940,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>300052629</v>
+        <v>300051958</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>10.131372549477296</v>
+        <v>1.6362296054841898</v>
       </c>
       <c r="D5">
-        <v>10.131372549477296</v>
+        <v>1.6362296054841898</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.54540986849473005</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>40.736897892962411</v>
       </c>
       <c r="H5">
-        <v>7.437415984634514</v>
+        <v>41.22833765172318</v>
       </c>
       <c r="J5">
-        <v>0.44558217623521224</v>
+        <v>0.68721034156990346</v>
       </c>
       <c r="K5" t="s">
         <v>125</v>
@@ -965,16 +972,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>300058444</v>
+        <v>300052628</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>10.279687242254131</v>
+        <v>7.7336912946951957</v>
       </c>
       <c r="D6">
-        <v>10.279687242254131</v>
+        <v>7.7336912946951957</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -983,13 +990,13 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>106.67960778015367</v>
+        <v>7.9999999999999964</v>
       </c>
       <c r="H6">
-        <v>107.02098971959299</v>
+        <v>8.0533930671769998</v>
       </c>
       <c r="J6">
-        <v>0.56366288667349296</v>
+        <v>0.76326593259835751</v>
       </c>
       <c r="K6" t="s">
         <v>125</v>
@@ -997,16 +1004,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>300058445</v>
+        <v>300052629</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>22.107512938112279</v>
+        <v>10.131372549477296</v>
       </c>
       <c r="D7">
-        <v>22.107512938112279</v>
+        <v>10.131372549477296</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1015,13 +1022,13 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.677565155400558</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>52.904151858410366</v>
+        <v>7.437415984634514</v>
       </c>
       <c r="J7">
-        <v>0.48841157248213757</v>
+        <v>0.44558217623521224</v>
       </c>
       <c r="K7" t="s">
         <v>125</v>
@@ -1029,16 +1036,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>300051955</v>
+        <v>300058444</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>11.673879838135422</v>
+        <v>10.279687242254131</v>
       </c>
       <c r="D8">
-        <v>11.673879838135422</v>
+        <v>10.279687242254131</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1047,13 +1054,13 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.737113425396256</v>
+        <v>106.67960778015367</v>
       </c>
       <c r="H8">
-        <v>31.883307665889713</v>
+        <v>107.02098971959299</v>
       </c>
       <c r="J8">
-        <v>1.2124463498295346</v>
+        <v>0.56366288667349296</v>
       </c>
       <c r="K8" t="s">
         <v>125</v>
@@ -1061,16 +1068,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>300058446</v>
+        <v>300058445</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>56.524908804593331</v>
+        <v>22.107512938112279</v>
       </c>
       <c r="D9">
-        <v>56.524908804593331</v>
+        <v>22.107512938112279</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1079,13 +1086,13 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>58.16881574608712</v>
+        <v>52.677565155400558</v>
       </c>
       <c r="H9">
-        <v>58.719100614576192</v>
+        <v>52.904151858410366</v>
       </c>
       <c r="J9">
-        <v>1.1287723978447108</v>
+        <v>0.48841157248213757</v>
       </c>
       <c r="K9" t="s">
         <v>125</v>
@@ -1093,16 +1100,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>300052695</v>
+        <v>300051955</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>13.736525298525768</v>
+        <v>11.673879838135422</v>
       </c>
       <c r="D10">
-        <v>13.736525298525768</v>
+        <v>11.673879838135422</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1111,62 +1118,62 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.783892182222829</v>
+        <v>31.737113425396256</v>
       </c>
       <c r="H10">
-        <v>51.890353687760609</v>
+        <v>31.883307665889713</v>
       </c>
       <c r="J10">
-        <v>0.66382280235111957</v>
+        <v>1.2124463498295346</v>
       </c>
       <c r="K10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>300052696</v>
+        <v>300058446</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>7.0148558525904985</v>
+        <v>56.524908804593331</v>
       </c>
       <c r="D11">
-        <v>7.0148558525904985</v>
+        <v>56.524908804593331</v>
       </c>
       <c r="E11">
-        <v>0.85219589471718715</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.024436531102662</v>
+        <v>58.16881574608712</v>
       </c>
       <c r="H11">
-        <v>14.345075071010733</v>
+        <v>58.719100614576192</v>
       </c>
       <c r="J11">
-        <v>0.71579688145030551</v>
+        <v>1.1287723978447108</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>300052694</v>
+        <v>300052695</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>7.0888044304570403</v>
+        <v>13.736525298525768</v>
       </c>
       <c r="D12">
-        <v>7.0888044304570403</v>
+        <v>13.736525298525768</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1175,13 +1182,13 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.337456762801235</v>
+        <v>52.783892182222829</v>
       </c>
       <c r="H12">
-        <v>23.95885901366994</v>
+        <v>51.890353687760609</v>
       </c>
       <c r="J12">
-        <v>0.65379991555785666</v>
+        <v>0.66382280235111957</v>
       </c>
       <c r="K12" t="s">
         <v>126</v>
@@ -1189,31 +1196,31 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>300052867</v>
+        <v>300052696</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>10.932311220582889</v>
+        <v>7.0148558525904985</v>
       </c>
       <c r="D13">
-        <v>12.433536681659607</v>
+        <v>7.0148558525904985</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.85219589471718715</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.847312288744448</v>
+        <v>12.024436531102662</v>
       </c>
       <c r="H13">
-        <v>60.896003491055566</v>
+        <v>14.345075071010733</v>
       </c>
       <c r="J13">
-        <v>0.6885673541147711</v>
+        <v>0.71579688145030551</v>
       </c>
       <c r="K13" t="s">
         <v>126</v>
@@ -1221,16 +1228,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>300052698</v>
+        <v>300052694</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>11.673020308744206</v>
+        <v>7.0888044304570403</v>
       </c>
       <c r="D14">
-        <v>11.673020308744206</v>
+        <v>7.0888044304570403</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1239,13 +1246,13 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.990838440244573</v>
+        <v>25.337456762801235</v>
       </c>
       <c r="H14">
-        <v>19.650064147082325</v>
+        <v>23.95885901366994</v>
       </c>
       <c r="J14">
-        <v>0.60992777989376556</v>
+        <v>0.65379991555785666</v>
       </c>
       <c r="K14" t="s">
         <v>126</v>
@@ -1253,16 +1260,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>300052697</v>
+        <v>300052867</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>17.766678412238214</v>
+        <v>10.932311220582889</v>
       </c>
       <c r="D15">
-        <v>17.766678412238214</v>
+        <v>12.433536681659607</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1271,13 +1278,13 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>32.125546971057844</v>
+        <v>60.847312288744448</v>
       </c>
       <c r="H15">
-        <v>29.061431745608534</v>
+        <v>60.896003491055566</v>
       </c>
       <c r="J15">
-        <v>0.66852590643390475</v>
+        <v>0.6885673541147711</v>
       </c>
       <c r="K15" t="s">
         <v>126</v>
@@ -1285,16 +1292,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>300058397</v>
+        <v>300052698</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>21.353852337409595</v>
+        <v>11.673020308744206</v>
       </c>
       <c r="D16">
-        <v>21.353852337409595</v>
+        <v>11.673020308744206</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1303,30 +1310,30 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>38.977918060859594</v>
+        <v>19.990838440244573</v>
       </c>
       <c r="H16">
-        <v>36.195962013229277</v>
+        <v>19.650064147082325</v>
       </c>
       <c r="J16">
-        <v>0.60801533585310974</v>
+        <v>0.60992777989376556</v>
       </c>
       <c r="K16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>300058394</v>
+        <v>300052697</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>18.249788732318375</v>
+        <v>17.766678412238214</v>
       </c>
       <c r="D17">
-        <v>18.249788732318375</v>
+        <v>17.766678412238214</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1335,30 +1342,30 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>66.130962725873829</v>
+        <v>32.125546971057844</v>
       </c>
       <c r="H17">
-        <v>61.824459046723376</v>
+        <v>29.061431745608534</v>
       </c>
       <c r="J17">
-        <v>0.65296242850246999</v>
+        <v>0.66852590643390475</v>
       </c>
       <c r="K17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>300052023</v>
+        <v>300058397</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>18.357020030115851</v>
+        <v>21.353852337409595</v>
       </c>
       <c r="D18">
-        <v>18.357020030115851</v>
+        <v>21.353852337409595</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1367,13 +1374,13 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.5285815961855103</v>
+        <v>38.977918060859594</v>
       </c>
       <c r="H18">
-        <v>2.5595710384485515</v>
+        <v>36.195962013229277</v>
       </c>
       <c r="J18">
-        <v>0.44613725614435723</v>
+        <v>0.60801533585310974</v>
       </c>
       <c r="K18" t="s">
         <v>127</v>
@@ -1381,16 +1388,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>300058395</v>
+        <v>300058394</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>15.117189340559332</v>
+        <v>18.249788732318375</v>
       </c>
       <c r="D19">
-        <v>15.117189340559332</v>
+        <v>18.249788732318375</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1399,13 +1406,13 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.517852142486504</v>
+        <v>66.130962725873829</v>
       </c>
       <c r="H19">
-        <v>35.71385676130933</v>
+        <v>61.824459046723376</v>
       </c>
       <c r="J19">
-        <v>0.64112569045764833</v>
+        <v>0.65296242850246999</v>
       </c>
       <c r="K19" t="s">
         <v>127</v>
@@ -1413,16 +1420,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>300054823</v>
+        <v>300052023</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>18.810123818098582</v>
+        <v>18.357020030115851</v>
       </c>
       <c r="D20">
-        <v>18.810123818098582</v>
+        <v>18.357020030115851</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1431,30 +1438,30 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.350494097832595</v>
+        <v>2.5285815961855103</v>
       </c>
       <c r="H20">
-        <v>40.797515819378127</v>
+        <v>2.5595710384485515</v>
       </c>
       <c r="J20">
-        <v>0.62164711479696633</v>
+        <v>0.44613725614435723</v>
       </c>
       <c r="K20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>300052892</v>
+        <v>300058395</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21">
-        <v>14.643342933722167</v>
+        <v>15.117189340559332</v>
       </c>
       <c r="D21">
-        <v>16.819050389046506</v>
+        <v>15.117189340559332</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1463,30 +1470,30 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>60.736707673039597</v>
+        <v>39.517852142486504</v>
       </c>
       <c r="H21">
-        <v>65.244461708242483</v>
+        <v>35.71385676130933</v>
       </c>
       <c r="J21">
-        <v>0.66792199838924671</v>
+        <v>0.64112569045764833</v>
       </c>
       <c r="K21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>300050336</v>
+        <v>300054823</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>17.278247079326565</v>
+        <v>18.810123818098582</v>
       </c>
       <c r="D22">
-        <v>17.278247079326565</v>
+        <v>18.810123818098582</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1495,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.5652396297124804</v>
+        <v>39.350494097832595</v>
       </c>
       <c r="H22">
-        <v>2.2606476252491516</v>
+        <v>40.797515819378127</v>
       </c>
       <c r="J22">
-        <v>0.58346289145997676</v>
+        <v>0.62164711479696633</v>
       </c>
       <c r="K22" t="s">
         <v>128</v>
@@ -1509,16 +1516,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>300052894</v>
+        <v>300052892</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23">
-        <v>18.208261649297874</v>
+        <v>14.643342933722167</v>
       </c>
       <c r="D23">
-        <v>20.122809489450365</v>
+        <v>16.819050389046506</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1527,13 +1534,13 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.043437197137898</v>
+        <v>60.736707673039597</v>
       </c>
       <c r="H23">
-        <v>19.092733560463621</v>
+        <v>65.244461708242483</v>
       </c>
       <c r="J23">
-        <v>0.64980030024044066</v>
+        <v>0.66792199838924671</v>
       </c>
       <c r="K23" t="s">
         <v>128</v>
@@ -1541,16 +1548,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>300059433</v>
+        <v>300050336</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>17.265606495807194</v>
+        <v>17.278247079326565</v>
       </c>
       <c r="D24">
-        <v>17.265606495807194</v>
+        <v>17.278247079326565</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1559,13 +1566,13 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.746794741342107</v>
+        <v>2.5652396297124804</v>
       </c>
       <c r="H24">
-        <v>31.130116386422699</v>
+        <v>2.2606476252491516</v>
       </c>
       <c r="J24">
-        <v>0.74065254732089814</v>
+        <v>0.58346289145997676</v>
       </c>
       <c r="K24" t="s">
         <v>128</v>
@@ -1573,48 +1580,48 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>300054822</v>
+        <v>300052894</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25">
-        <v>7.7688735866172669</v>
+        <v>18.208261649297874</v>
       </c>
       <c r="D25">
-        <v>7.7688735866172669</v>
+        <v>20.122809489450365</v>
       </c>
       <c r="E25">
-        <v>0.60472001796351826</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.65953363093005246</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>32.787575492271564</v>
+        <v>17.043437197137898</v>
       </c>
       <c r="H25">
-        <v>48.087263083891742</v>
+        <v>19.092733560463621</v>
       </c>
       <c r="J25">
-        <v>0.86006351012008686</v>
+        <v>0.64980030024044066</v>
       </c>
       <c r="K25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>300058257</v>
+        <v>300059433</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26">
-        <v>13.355702659489571</v>
+        <v>17.265606495807194</v>
       </c>
       <c r="D26">
-        <v>13.355702659489571</v>
+        <v>17.265606495807194</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1623,45 +1630,45 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.683192922862702</v>
+        <v>27.746794741342107</v>
       </c>
       <c r="H26">
-        <v>9.8931720868568096</v>
+        <v>31.130116386422699</v>
       </c>
       <c r="J26">
-        <v>4.1802568111538166E-2</v>
+        <v>0.74065254732089814</v>
       </c>
       <c r="K26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>300058259</v>
+        <v>300054822</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27">
-        <v>10.533274839710536</v>
+        <v>7.7688735866172669</v>
       </c>
       <c r="D27">
-        <v>10.533274839710536</v>
+        <v>7.7688735866172669</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.60472001796351826</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.65953363093005246</v>
       </c>
       <c r="G27">
-        <v>80.979840357132687</v>
+        <v>32.787575492271564</v>
       </c>
       <c r="H27">
-        <v>49.142993270993323</v>
+        <v>48.087263083891742</v>
       </c>
       <c r="J27">
-        <v>0.38775039393555522</v>
+        <v>0.86006351012008686</v>
       </c>
       <c r="K27" t="s">
         <v>129</v>
@@ -1669,16 +1676,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>300054821</v>
+        <v>300058257</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28">
-        <v>18.289656688661982</v>
+        <v>13.355702659489571</v>
       </c>
       <c r="D28">
-        <v>18.669100546592478</v>
+        <v>13.355702659489571</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1687,13 +1694,13 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>18.087173620713244</v>
+        <v>19.683192922862702</v>
       </c>
       <c r="H28">
-        <v>45.338730606478968</v>
+        <v>9.8931720868568096</v>
       </c>
       <c r="J28">
-        <v>1.0022106605584302</v>
+        <v>4.1802568111538166E-2</v>
       </c>
       <c r="K28" t="s">
         <v>129</v>
@@ -1701,19 +1708,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>300058253</v>
+        <v>300058259</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>10.533274839710536</v>
+      </c>
+      <c r="D29">
+        <v>10.533274839710536</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>17.991231013307395</v>
+        <v>80.979840357132687</v>
       </c>
       <c r="H29">
-        <v>2.2797020416792275</v>
+        <v>49.142993270993323</v>
       </c>
       <c r="J29">
-        <v>1.2376222630926588</v>
+        <v>0.38775039393555522</v>
       </c>
       <c r="K29" t="s">
         <v>129</v>
@@ -1721,31 +1740,31 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>300054910</v>
+        <v>300054821</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30">
-        <v>10.537385402318229</v>
+        <v>18.289656688661982</v>
       </c>
       <c r="D30">
-        <v>10.537385402318229</v>
+        <v>18.669100546592478</v>
       </c>
       <c r="E30">
-        <v>0.49519605059007604</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0.49519605059007604</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>9.5938991699694434</v>
+        <v>18.087173620713244</v>
       </c>
       <c r="H30">
-        <v>11.287070014731331</v>
+        <v>45.338730606478968</v>
       </c>
       <c r="J30">
-        <v>0.6177971777351452</v>
+        <v>1.0022106605584302</v>
       </c>
       <c r="K30" t="s">
         <v>129</v>
@@ -1753,31 +1772,19 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>300059545</v>
+        <v>300058253</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31">
-        <v>6.644126919403333</v>
-      </c>
-      <c r="D31">
-        <v>6.644126919403333</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G31">
-        <v>47.620041751035956</v>
+        <v>17.991231013307395</v>
       </c>
       <c r="H31">
-        <v>54.269445720447429</v>
+        <v>2.2797020416792275</v>
       </c>
       <c r="J31">
-        <v>0.76622119588615478</v>
+        <v>1.2376222630926588</v>
       </c>
       <c r="K31" t="s">
         <v>129</v>
@@ -1785,31 +1792,31 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>300060190</v>
+        <v>300054910</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32">
-        <v>10.450482325339831</v>
+        <v>10.537385402318229</v>
       </c>
       <c r="D32">
-        <v>10.450482325339831</v>
+        <v>10.537385402318229</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0.49519605059007604</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.49519605059007604</v>
       </c>
       <c r="G32">
-        <v>34.076383365156119</v>
+        <v>9.5938991699694434</v>
       </c>
       <c r="H32">
-        <v>25.702367987633902</v>
+        <v>11.287070014731331</v>
       </c>
       <c r="J32">
-        <v>0.4701290560392592</v>
+        <v>0.6177971777351452</v>
       </c>
       <c r="K32" t="s">
         <v>129</v>
@@ -1817,16 +1824,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>300060191</v>
+        <v>300059545</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33">
-        <v>8.4589293553086726</v>
+        <v>6.644126919403333</v>
       </c>
       <c r="D33">
-        <v>8.4589293553086726</v>
+        <v>6.644126919403333</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1835,13 +1842,13 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.593497544694024</v>
+        <v>47.620041751035956</v>
       </c>
       <c r="H33">
-        <v>26.847882547748618</v>
+        <v>54.269445720447429</v>
       </c>
       <c r="J33">
-        <v>4.8599735851772664E-2</v>
+        <v>0.76622119588615478</v>
       </c>
       <c r="K33" t="s">
         <v>129</v>
@@ -1849,31 +1856,31 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>300060192</v>
+        <v>300060190</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34">
-        <v>22.899894646491749</v>
+        <v>10.450482325339831</v>
       </c>
       <c r="D34">
-        <v>22.899894646491749</v>
+        <v>10.450482325339831</v>
       </c>
       <c r="E34">
-        <v>0.86330894511397804</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>18.960450777036883</v>
+        <v>34.076383365156119</v>
       </c>
       <c r="H34">
-        <v>14.544053661059817</v>
+        <v>25.702367987633902</v>
       </c>
       <c r="J34">
-        <v>0.49182615567156501</v>
+        <v>0.4701290560392592</v>
       </c>
       <c r="K34" t="s">
         <v>129</v>
@@ -1881,31 +1888,31 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>300059547</v>
+        <v>300060191</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>8.4589293553086726</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>8.4589293553086726</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>25.593497544694024</v>
       </c>
       <c r="H35">
-        <v>9.0444962914439841</v>
+        <v>26.847882547748618</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>4.8599735851772664E-2</v>
       </c>
       <c r="K35" t="s">
         <v>129</v>
@@ -1913,31 +1920,31 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>300059753</v>
+        <v>300060192</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36">
-        <v>2.6794071614408295</v>
+        <v>22.899894646491749</v>
       </c>
       <c r="D36">
-        <v>2.6794071614408295</v>
+        <v>22.899894646491749</v>
       </c>
       <c r="E36">
-        <v>0.89313572048027645</v>
+        <v>0.86330894511397804</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>18.960450777036883</v>
       </c>
       <c r="H36">
-        <v>15.280153068209403</v>
+        <v>14.544053661059817</v>
       </c>
       <c r="J36">
-        <v>0.65264267677709986</v>
+        <v>0.49182615567156501</v>
       </c>
       <c r="K36" t="s">
         <v>129</v>
@@ -1945,31 +1952,31 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>300059867</v>
+        <v>300059547</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37">
-        <v>4.600652073006823</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>4.600652073006823</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>6.6036552031947018</v>
+        <v>9.0444962914439841</v>
       </c>
       <c r="J37">
-        <v>0.19329295075589148</v>
+        <v>0</v>
       </c>
       <c r="K37" t="s">
         <v>129</v>
@@ -1977,19 +1984,19 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>300052775</v>
+        <v>300059753</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38">
-        <v>14.91785803897411</v>
+        <v>2.6794071614408295</v>
       </c>
       <c r="D38">
-        <v>14.91785803897411</v>
+        <v>2.6794071614408295</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0.89313572048027645</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1998,27 +2005,27 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>8.3761218377631135</v>
+        <v>15.280153068209403</v>
       </c>
       <c r="J38">
-        <v>0.85880082911031774</v>
+        <v>0.65264267677709986</v>
       </c>
       <c r="K38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>300052773</v>
+        <v>300059867</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39">
-        <v>11.383038046902159</v>
+        <v>4.600652073006823</v>
       </c>
       <c r="D39">
-        <v>11.383038046902159</v>
+        <v>4.600652073006823</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2027,30 +2034,30 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>73.989883798340301</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>69.038241622433503</v>
+        <v>6.6036552031947018</v>
       </c>
       <c r="J39">
-        <v>0.74427387636859121</v>
+        <v>0.19329295075589148</v>
       </c>
       <c r="K39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>300052777</v>
+        <v>300052775</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40">
-        <v>9.8723034898639028</v>
+        <v>14.91785803897411</v>
       </c>
       <c r="D40">
-        <v>9.8723034898639028</v>
+        <v>14.91785803897411</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2059,13 +2066,13 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>114.39843673037342</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>106.76552344085931</v>
+        <v>8.3761218377631135</v>
       </c>
       <c r="J40">
-        <v>0.70926884971389337</v>
+        <v>0.85880082911031774</v>
       </c>
       <c r="K40" t="s">
         <v>130</v>
@@ -2073,16 +2080,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>300051988</v>
+        <v>300052773</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41">
-        <v>15.661733764786966</v>
+        <v>11.383038046902159</v>
       </c>
       <c r="D41">
-        <v>15.661733764786966</v>
+        <v>11.383038046902159</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2091,13 +2098,13 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>10.939641195870006</v>
+        <v>73.989883798340301</v>
       </c>
       <c r="H41">
-        <v>10.924992651676551</v>
+        <v>69.038241622433503</v>
       </c>
       <c r="J41">
-        <v>0.64542652108035148</v>
+        <v>0.74427387636859121</v>
       </c>
       <c r="K41" t="s">
         <v>130</v>
@@ -2105,16 +2112,31 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>300052778</v>
+        <v>300052777</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>9.8723034898639028</v>
+      </c>
+      <c r="D42">
+        <v>9.8723034898639028</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>114.39843673037342</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>106.76552344085931</v>
+      </c>
+      <c r="J42">
+        <v>0.70926884971389337</v>
       </c>
       <c r="K42" t="s">
         <v>130</v>
@@ -2122,16 +2144,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>300060195</v>
+        <v>300051988</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43">
-        <v>20.700042214639009</v>
+        <v>15.661733764786966</v>
       </c>
       <c r="D43">
-        <v>20.700042214639009</v>
+        <v>15.661733764786966</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2140,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>26.024072435445216</v>
+        <v>10.939641195870006</v>
       </c>
       <c r="H43">
-        <v>22.130824865568002</v>
+        <v>10.924992651676551</v>
       </c>
       <c r="J43">
-        <v>0.67818868438796376</v>
+        <v>0.64542652108035148</v>
       </c>
       <c r="K43" t="s">
         <v>130</v>
@@ -2154,31 +2176,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>300052776</v>
+        <v>300052778</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>28.803963576257583</v>
-      </c>
-      <c r="D44">
-        <v>28.803963576257583</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G44">
-        <v>20.629404108619187</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>21.061030282338649</v>
-      </c>
-      <c r="J44">
-        <v>0.71154237476059279</v>
+        <v>0</v>
       </c>
       <c r="K44" t="s">
         <v>130</v>
@@ -2186,16 +2193,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>300059432</v>
+        <v>300060195</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45">
-        <v>18.113231197334763</v>
+        <v>20.700042214639009</v>
       </c>
       <c r="D45">
-        <v>18.113231197334763</v>
+        <v>20.700042214639009</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2204,13 +2211,13 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>56.832668233805521</v>
+        <v>26.024072435445216</v>
       </c>
       <c r="H45">
-        <v>54.690990682339546</v>
+        <v>22.130824865568002</v>
       </c>
       <c r="J45">
-        <v>0.67343304373334623</v>
+        <v>0.67818868438796376</v>
       </c>
       <c r="K45" t="s">
         <v>130</v>
@@ -2218,16 +2225,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>300060193</v>
+        <v>300052776</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C46">
-        <v>17.317725114909436</v>
+        <v>28.803963576257583</v>
       </c>
       <c r="D46">
-        <v>17.317725114909436</v>
+        <v>28.803963576257583</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2236,13 +2243,13 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <v>43.054989306857621</v>
+        <v>20.629404108619187</v>
       </c>
       <c r="H46">
-        <v>34.018441501557085</v>
+        <v>21.061030282338649</v>
       </c>
       <c r="J46">
-        <v>0.4988203236536658</v>
+        <v>0.71154237476059279</v>
       </c>
       <c r="K46" t="s">
         <v>130</v>
@@ -2250,16 +2257,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>300060194</v>
+        <v>300059432</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47">
-        <v>10.049908297870465</v>
+        <v>18.113231197334763</v>
       </c>
       <c r="D47">
-        <v>10.049908297870465</v>
+        <v>18.113231197334763</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2268,13 +2275,13 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>34.141297569467255</v>
+        <v>56.832668233805521</v>
       </c>
       <c r="H47">
-        <v>25.252653789268813</v>
+        <v>54.690990682339546</v>
       </c>
       <c r="J47">
-        <v>1.5301362115224572E-2</v>
+        <v>0.67343304373334623</v>
       </c>
       <c r="K47" t="s">
         <v>130</v>
@@ -2282,16 +2289,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>300060231</v>
+        <v>300060193</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C48">
-        <v>15.871263082981708</v>
+        <v>17.317725114909436</v>
       </c>
       <c r="D48">
-        <v>15.871263082981708</v>
+        <v>17.317725114909436</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2300,13 +2307,13 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>23.504723690601629</v>
+        <v>43.054989306857621</v>
       </c>
       <c r="H48">
-        <v>15.741107271099851</v>
+        <v>34.018441501557085</v>
       </c>
       <c r="J48">
-        <v>1.3130099200801575</v>
+        <v>0.4988203236536658</v>
       </c>
       <c r="K48" t="s">
         <v>130</v>
@@ -2314,19 +2321,31 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>300052774</v>
+        <v>300060194</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="C49">
+        <v>10.049908297870465</v>
+      </c>
+      <c r="D49">
+        <v>10.049908297870465</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>34.141297569467255</v>
       </c>
       <c r="H49">
-        <v>23.714823696363133</v>
+        <v>25.252653789268813</v>
       </c>
       <c r="J49">
-        <v>0.90501389657353504</v>
+        <v>1.5301362115224572E-2</v>
       </c>
       <c r="K49" t="s">
         <v>130</v>
@@ -2334,31 +2353,31 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>300059431</v>
+        <v>300060231</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C50">
-        <v>4.6715569388417197</v>
+        <v>15.871263082981708</v>
       </c>
       <c r="D50">
-        <v>4.6715569388417197</v>
+        <v>15.871263082981708</v>
       </c>
       <c r="E50">
-        <v>0.35760257941482343</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0.35760257941482343</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>2.8349999999999995</v>
+        <v>23.504723690601629</v>
       </c>
       <c r="H50">
-        <v>2.7834589527472593</v>
+        <v>15.741107271099851</v>
       </c>
       <c r="J50">
-        <v>0.96479094737483684</v>
+        <v>1.3130099200801575</v>
       </c>
       <c r="K50" t="s">
         <v>130</v>
@@ -2366,31 +2385,19 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>300060080</v>
+        <v>300052774</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51">
-        <v>12.522898439682983</v>
-      </c>
-      <c r="D51">
-        <v>12.522898439682983</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>10.693479688808203</v>
+        <v>23.714823696363133</v>
       </c>
       <c r="J51">
-        <v>0.30759323398187405</v>
+        <v>0.90501389657353504</v>
       </c>
       <c r="K51" t="s">
         <v>130</v>
@@ -2398,31 +2405,31 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>300060230</v>
+        <v>300059431</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C52">
-        <v>3.0051612854391618</v>
+        <v>4.6715569388417197</v>
       </c>
       <c r="D52">
-        <v>3.0051612854391618</v>
+        <v>4.6715569388417197</v>
       </c>
       <c r="E52">
-        <v>0.50804284312544823</v>
+        <v>0.35760257941482343</v>
       </c>
       <c r="F52">
-        <v>0.51223589640497824</v>
+        <v>0.35760257941482343</v>
       </c>
       <c r="G52">
-        <v>43.370949817640657</v>
+        <v>2.8349999999999995</v>
       </c>
       <c r="H52">
-        <v>24.807382968795089</v>
+        <v>2.7834589527472593</v>
       </c>
       <c r="J52">
-        <v>0.69101831586036977</v>
+        <v>0.96479094737483684</v>
       </c>
       <c r="K52" t="s">
         <v>130</v>
@@ -2430,16 +2437,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>300052772</v>
+        <v>300060080</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C53">
-        <v>14.269128358642375</v>
+        <v>12.522898439682983</v>
       </c>
       <c r="D53">
-        <v>14.269128358642375</v>
+        <v>12.522898439682983</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2448,13 +2455,13 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>31.751945911763574</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>27.661300877177965</v>
+        <v>10.693479688808203</v>
       </c>
       <c r="J53">
-        <v>0.73822377662822691</v>
+        <v>0.30759323398187405</v>
       </c>
       <c r="K53" t="s">
         <v>130</v>
@@ -2462,31 +2469,31 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>300054967</v>
+        <v>300060230</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C54">
-        <v>11.186742982899368</v>
+        <v>3.0051612854391618</v>
       </c>
       <c r="D54">
-        <v>11.186742982899368</v>
+        <v>3.0051612854391618</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0.50804284312544823</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.51223589640497824</v>
       </c>
       <c r="G54">
-        <v>14.292359950564748</v>
+        <v>43.370949817640657</v>
       </c>
       <c r="H54">
-        <v>13.882861425157941</v>
+        <v>24.807382968795089</v>
       </c>
       <c r="J54">
-        <v>0.72675939714533411</v>
+        <v>0.69101831586036977</v>
       </c>
       <c r="K54" t="s">
         <v>130</v>
@@ -2494,16 +2501,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>300056674</v>
+        <v>300052772</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C55">
-        <v>10.584004969564333</v>
+        <v>14.269128358642375</v>
       </c>
       <c r="D55">
-        <v>10.584004969564333</v>
+        <v>14.269128358642375</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2512,13 +2519,13 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>10.542333218894035</v>
+        <v>31.751945911763574</v>
       </c>
       <c r="H55">
-        <v>8.9448284648355632</v>
+        <v>27.661300877177965</v>
       </c>
       <c r="J55">
-        <v>0.82388388206340823</v>
+        <v>0.73822377662822691</v>
       </c>
       <c r="K55" t="s">
         <v>130</v>
@@ -2526,31 +2533,31 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>300058328</v>
+        <v>300054967</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56">
-        <v>5.5286883213357871</v>
+        <v>11.186742982899368</v>
       </c>
       <c r="D56">
-        <v>5.5286883213357871</v>
+        <v>11.186742982899368</v>
       </c>
       <c r="E56">
-        <v>0.38697562228264154</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>0.38976577535926826</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>14.292359950564748</v>
       </c>
       <c r="H56">
-        <v>11.145736114741815</v>
+        <v>13.882861425157941</v>
       </c>
       <c r="J56">
-        <v>0.71319022074156957</v>
+        <v>0.72675939714533411</v>
       </c>
       <c r="K56" t="s">
         <v>130</v>
@@ -2558,31 +2565,31 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>300058651</v>
+        <v>300056674</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>10.584004969564333</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>10.584004969564333</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>2.89508606013937</v>
+        <v>10.542333218894035</v>
       </c>
       <c r="H57">
-        <v>0.39146985398652184</v>
+        <v>8.9448284648355632</v>
       </c>
       <c r="J57">
-        <v>-0.42365195253504767</v>
+        <v>0.82388388206340823</v>
       </c>
       <c r="K57" t="s">
         <v>130</v>
@@ -2590,31 +2597,31 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>300060232</v>
+        <v>300058328</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C58">
-        <v>10.819128501723842</v>
+        <v>5.5286883213357871</v>
       </c>
       <c r="D58">
-        <v>10.819128501723842</v>
+        <v>5.5286883213357871</v>
       </c>
       <c r="E58">
-        <v>0.83609833419990609</v>
+        <v>0.38697562228264154</v>
       </c>
       <c r="F58">
-        <v>0.83609833419990609</v>
+        <v>0.38976577535926826</v>
       </c>
       <c r="G58">
-        <v>18.886272246023061</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>10.408547036653392</v>
+        <v>11.145736114741815</v>
       </c>
       <c r="J58">
-        <v>0.67361102133754802</v>
+        <v>0.71319022074156957</v>
       </c>
       <c r="K58" t="s">
         <v>130</v>
@@ -2622,31 +2629,31 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>300059430</v>
+        <v>300058651</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C59">
-        <v>2.7234282256793136</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>2.7234282256793136</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0.35728693946318252</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.35728693946318252</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>1.71</v>
+        <v>2.89508606013937</v>
       </c>
       <c r="H59">
-        <v>1.6789117675223535</v>
+        <v>0.39146985398652184</v>
       </c>
       <c r="J59">
-        <v>1.201463971496729</v>
+        <v>-0.42365195253504767</v>
       </c>
       <c r="K59" t="s">
         <v>130</v>
@@ -2654,31 +2661,31 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>300060098</v>
+        <v>300060232</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C60">
-        <v>11.709468191560786</v>
+        <v>10.819128501723842</v>
       </c>
       <c r="D60">
-        <v>11.709468191560786</v>
+        <v>10.819128501723842</v>
       </c>
       <c r="E60">
-        <v>0.58973831175009161</v>
+        <v>0.83609833419990609</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.83609833419990609</v>
       </c>
       <c r="G60">
-        <v>9.024672612922263</v>
+        <v>18.886272246023061</v>
       </c>
       <c r="H60">
-        <v>12.230748434692856</v>
+        <v>10.408547036653392</v>
       </c>
       <c r="J60">
-        <v>0.62155280525896173</v>
+        <v>0.67361102133754802</v>
       </c>
       <c r="K60" t="s">
         <v>130</v>
@@ -2686,31 +2693,31 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>300060099</v>
+        <v>300059430</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C61">
-        <v>12.840966418689247</v>
+        <v>2.7234282256793136</v>
       </c>
       <c r="D61">
-        <v>12.840966418689247</v>
+        <v>2.7234282256793136</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0.35728693946318252</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.35728693946318252</v>
       </c>
       <c r="G61">
-        <v>3.1440390560599267</v>
+        <v>1.71</v>
       </c>
       <c r="H61">
-        <v>3.1518688880658869</v>
+        <v>1.6789117675223535</v>
       </c>
       <c r="J61">
-        <v>0.5020843366905049</v>
+        <v>1.201463971496729</v>
       </c>
       <c r="K61" t="s">
         <v>130</v>
@@ -2718,31 +2725,31 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>300060233</v>
+        <v>300060098</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C62">
-        <v>12.638517030863218</v>
+        <v>11.709468191560786</v>
       </c>
       <c r="D62">
-        <v>12.638517030863218</v>
+        <v>11.709468191560786</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0.58973831175009161</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62">
-        <v>12.317688909088609</v>
+        <v>9.024672612922263</v>
       </c>
       <c r="H62">
-        <v>11.287778592488333</v>
+        <v>12.230748434692856</v>
       </c>
       <c r="J62">
-        <v>0.58064923459445272</v>
+        <v>0.62155280525896173</v>
       </c>
       <c r="K62" t="s">
         <v>130</v>
@@ -2750,16 +2757,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>300059801</v>
+        <v>300060099</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C63">
-        <v>7.9160635771310091</v>
+        <v>12.840966418689247</v>
       </c>
       <c r="D63">
-        <v>8.5591231690994096</v>
+        <v>12.840966418689247</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2768,13 +2775,13 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>5.5762896442258736</v>
+        <v>3.1440390560599267</v>
       </c>
       <c r="H63">
-        <v>5.4282951903804957</v>
+        <v>3.1518688880658869</v>
       </c>
       <c r="J63">
-        <v>0.52564569536609784</v>
+        <v>0.5020843366905049</v>
       </c>
       <c r="K63" t="s">
         <v>130</v>
@@ -2782,31 +2789,31 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>300059811</v>
+        <v>300060233</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C64">
-        <v>3.949978373466462</v>
+        <v>12.638517030863218</v>
       </c>
       <c r="D64">
-        <v>3.949978373466462</v>
+        <v>12.638517030863218</v>
       </c>
       <c r="E64">
-        <v>0.84513608738327761</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64">
-        <v>20.541226366898869</v>
+        <v>12.317688909088609</v>
       </c>
       <c r="H64">
-        <v>20.64007068045817</v>
+        <v>11.287778592488333</v>
       </c>
       <c r="J64">
-        <v>0.47517492317920151</v>
+        <v>0.58064923459445272</v>
       </c>
       <c r="K64" t="s">
         <v>130</v>
@@ -2814,16 +2821,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>300052759</v>
+        <v>300059801</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C65">
-        <v>16.781644240659087</v>
+        <v>7.9160635771310091</v>
       </c>
       <c r="D65">
-        <v>16.781644240659087</v>
+        <v>8.5591231690994096</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2832,62 +2839,62 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>102.46736056939045</v>
+        <v>5.5762896442258736</v>
       </c>
       <c r="H65">
-        <v>84.753215824571072</v>
+        <v>5.4282951903804957</v>
       </c>
       <c r="J65">
-        <v>0.64362832099387268</v>
+        <v>0.52564569536609784</v>
       </c>
       <c r="K65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>300052758</v>
+        <v>300059811</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C66">
-        <v>17.453686063096089</v>
+        <v>3.949978373466462</v>
       </c>
       <c r="D66">
-        <v>20.524332319359392</v>
+        <v>3.949978373466462</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0.84513608738327761</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66">
-        <v>33.486870656420535</v>
+        <v>20.541226366898869</v>
       </c>
       <c r="H66">
-        <v>33.473686963981095</v>
+        <v>20.64007068045817</v>
       </c>
       <c r="J66">
-        <v>0.86677036895338466</v>
+        <v>0.47517492317920151</v>
       </c>
       <c r="K66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>300060234</v>
+        <v>300052759</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C67">
-        <v>15.892669525021942</v>
+        <v>16.781644240659087</v>
       </c>
       <c r="D67">
-        <v>15.892669525021942</v>
+        <v>16.781644240659087</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2896,13 +2903,13 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>37.54658537589772</v>
+        <v>102.46736056939045</v>
       </c>
       <c r="H67">
-        <v>36.202468620644908</v>
+        <v>84.753215824571072</v>
       </c>
       <c r="J67">
-        <v>4.2229164425770203E-2</v>
+        <v>0.64362832099387268</v>
       </c>
       <c r="K67" t="s">
         <v>131</v>
@@ -2910,31 +2917,31 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>300052739</v>
+        <v>300052758</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C68">
-        <v>5.6998420016551625</v>
+        <v>17.453686063096089</v>
       </c>
       <c r="D68">
-        <v>5.6998420016551625</v>
+        <v>20.524332319359392</v>
       </c>
       <c r="E68">
-        <v>0.26816725897709226</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>0.26816725897709226</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>12.956165883268818</v>
+        <v>33.486870656420535</v>
       </c>
       <c r="H68">
-        <v>13.646249934628415</v>
+        <v>33.473686963981095</v>
       </c>
       <c r="J68">
-        <v>0.75248804977128059</v>
+        <v>0.86677036895338466</v>
       </c>
       <c r="K68" t="s">
         <v>131</v>
@@ -2942,16 +2949,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>300052656</v>
+        <v>300060234</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C69">
-        <v>13.390090384834927</v>
+        <v>15.892669525021942</v>
       </c>
       <c r="D69">
-        <v>13.390090384834927</v>
+        <v>15.892669525021942</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2960,13 +2967,13 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>19.922244370722026</v>
+        <v>37.54658537589772</v>
       </c>
       <c r="H69">
-        <v>16.04011642409851</v>
+        <v>36.202468620644908</v>
       </c>
       <c r="J69">
-        <v>0.91907063578739145</v>
+        <v>4.2229164425770203E-2</v>
       </c>
       <c r="K69" t="s">
         <v>131</v>
@@ -2974,31 +2981,31 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>300051086</v>
+        <v>300052739</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C70">
-        <v>23.021128690526499</v>
+        <v>5.6998420016551625</v>
       </c>
       <c r="D70">
-        <v>23.021128690526499</v>
+        <v>5.6998420016551625</v>
       </c>
       <c r="E70">
-        <v>0.22829924198233575</v>
+        <v>0.26816725897709226</v>
       </c>
       <c r="F70">
-        <v>0.22829924198233575</v>
+        <v>0.26816725897709226</v>
       </c>
       <c r="G70">
-        <v>11.030895333763706</v>
+        <v>12.956165883268818</v>
       </c>
       <c r="H70">
-        <v>11.035335916113191</v>
+        <v>13.646249934628415</v>
       </c>
       <c r="J70">
-        <v>0.74620293053121201</v>
+        <v>0.75248804977128059</v>
       </c>
       <c r="K70" t="s">
         <v>131</v>
@@ -3006,19 +3013,31 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>300052790</v>
+        <v>300052656</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="C71">
+        <v>13.390090384834927</v>
+      </c>
+      <c r="D71">
+        <v>13.390090384834927</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>8.5632361655661349</v>
+        <v>19.922244370722026</v>
       </c>
       <c r="H71">
-        <v>8.5287803888552514</v>
+        <v>16.04011642409851</v>
       </c>
       <c r="J71">
-        <v>0.92769184329554244</v>
+        <v>0.91907063578739145</v>
       </c>
       <c r="K71" t="s">
         <v>131</v>
@@ -3026,31 +3045,31 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>300052657</v>
+        <v>300051086</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C72">
-        <v>29.135762242845903</v>
+        <v>23.021128690526499</v>
       </c>
       <c r="D72">
-        <v>29.135762242845903</v>
+        <v>23.021128690526499</v>
       </c>
       <c r="E72">
-        <v>0.34697386184140766</v>
+        <v>0.22829924198233575</v>
       </c>
       <c r="F72">
-        <v>0.3918232019857269</v>
+        <v>0.22829924198233575</v>
       </c>
       <c r="G72">
-        <v>12.505765186305087</v>
+        <v>11.030895333763706</v>
       </c>
       <c r="H72">
-        <v>8.4357240230634787</v>
+        <v>11.035335916113191</v>
       </c>
       <c r="J72">
-        <v>0.55765693461977783</v>
+        <v>0.74620293053121201</v>
       </c>
       <c r="K72" t="s">
         <v>131</v>
@@ -3058,31 +3077,19 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>300052738</v>
+        <v>300052790</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73">
-        <v>19.897288395212428</v>
-      </c>
-      <c r="D73">
-        <v>19.897288395212428</v>
-      </c>
-      <c r="E73">
-        <v>0.54682193500727094</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="G73">
-        <v>6.37576333639569</v>
+        <v>8.5632361655661349</v>
       </c>
       <c r="H73">
-        <v>5.5767071267574782</v>
+        <v>8.5287803888552514</v>
       </c>
       <c r="J73">
-        <v>0.75319716537494741</v>
+        <v>0.92769184329554244</v>
       </c>
       <c r="K73" t="s">
         <v>131</v>
@@ -3090,31 +3097,31 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>300060093</v>
+        <v>300052657</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C74">
-        <v>19.337286059899046</v>
+        <v>29.135762242845903</v>
       </c>
       <c r="D74">
-        <v>19.337286059899046</v>
+        <v>29.135762242845903</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0.34697386184140766</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.3918232019857269</v>
       </c>
       <c r="G74">
-        <v>5.0046406442375817</v>
+        <v>12.505765186305087</v>
       </c>
       <c r="H74">
-        <v>4.7521381365198874</v>
+        <v>8.4357240230634787</v>
       </c>
       <c r="J74">
-        <v>7.5149330625630367E-2</v>
+        <v>0.55765693461977783</v>
       </c>
       <c r="K74" t="s">
         <v>131</v>
@@ -3122,31 +3129,31 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>300060091</v>
+        <v>300052738</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C75">
-        <v>15.555935295293256</v>
+        <v>19.897288395212428</v>
       </c>
       <c r="D75">
-        <v>15.555935295293256</v>
+        <v>19.897288395212428</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0.54682193500727094</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
-        <v>12.351179337262987</v>
+        <v>6.37576333639569</v>
       </c>
       <c r="H75">
-        <v>11.923148745737405</v>
+        <v>5.5767071267574782</v>
       </c>
       <c r="J75">
-        <v>3.1199812057447674E-4</v>
+        <v>0.75319716537494741</v>
       </c>
       <c r="K75" t="s">
         <v>131</v>
@@ -3154,16 +3161,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>300060092</v>
+        <v>300060093</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C76">
-        <v>13.925255326570102</v>
+        <v>19.337286059899046</v>
       </c>
       <c r="D76">
-        <v>13.925255326570102</v>
+        <v>19.337286059899046</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3172,13 +3179,13 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <v>22.551116603957333</v>
+        <v>5.0046406442375817</v>
       </c>
       <c r="H76">
-        <v>21.6122231797615</v>
+        <v>4.7521381365198874</v>
       </c>
       <c r="J76">
-        <v>1.7154875595916892E-2</v>
+        <v>7.5149330625630367E-2</v>
       </c>
       <c r="K76" t="s">
         <v>131</v>
@@ -3186,16 +3193,16 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>300060094</v>
+        <v>300060091</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C77">
-        <v>16.245783155902444</v>
+        <v>15.555935295293256</v>
       </c>
       <c r="D77">
-        <v>16.245783155902444</v>
+        <v>15.555935295293256</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3204,13 +3211,13 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>23.889525408375068</v>
+        <v>12.351179337262987</v>
       </c>
       <c r="H77">
-        <v>22.883958614805291</v>
+        <v>11.923148745737405</v>
       </c>
       <c r="J77">
-        <v>0.19699235940251483</v>
+        <v>3.1199812057447674E-4</v>
       </c>
       <c r="K77" t="s">
         <v>131</v>
@@ -3218,31 +3225,31 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>300052666</v>
+        <v>300060092</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C78">
-        <v>23.011524730821645</v>
+        <v>13.925255326570102</v>
       </c>
       <c r="D78">
-        <v>23.011524730821645</v>
+        <v>13.925255326570102</v>
       </c>
       <c r="E78">
-        <v>0.85680065364809288</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78">
-        <v>66.373763093604012</v>
+        <v>22.551116603957333</v>
       </c>
       <c r="H78">
-        <v>60.247083973798041</v>
+        <v>21.6122231797615</v>
       </c>
       <c r="J78">
-        <v>0.64970780224024816</v>
+        <v>1.7154875595916892E-2</v>
       </c>
       <c r="K78" t="s">
         <v>131</v>
@@ -3250,31 +3257,31 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>300052664</v>
+        <v>300060094</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C79">
-        <v>23.065964959249875</v>
+        <v>16.245783155902444</v>
       </c>
       <c r="D79">
-        <v>23.065964959249875</v>
+        <v>16.245783155902444</v>
       </c>
       <c r="E79">
-        <v>0.21091570328346246</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>0.40409798937433244</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>23.889525408375068</v>
       </c>
       <c r="H79">
-        <v>14.544533125135192</v>
+        <v>22.883958614805291</v>
       </c>
       <c r="J79">
-        <v>0.66116388317625108</v>
+        <v>0.19699235940251483</v>
       </c>
       <c r="K79" t="s">
         <v>131</v>
@@ -3282,31 +3289,31 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>300052667</v>
+        <v>300052666</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C80">
-        <v>8.6363391874450226</v>
+        <v>23.011524730821645</v>
       </c>
       <c r="D80">
-        <v>8.6363391874450226</v>
+        <v>23.011524730821645</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0.85680065364809288</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>18.541040228976101</v>
+        <v>66.373763093604012</v>
       </c>
       <c r="H80">
-        <v>20.408535401179083</v>
+        <v>60.247083973798041</v>
       </c>
       <c r="J80">
-        <v>0.57417153017864309</v>
+        <v>0.64970780224024816</v>
       </c>
       <c r="K80" t="s">
         <v>131</v>
@@ -3314,31 +3321,31 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>300052665</v>
+        <v>300052664</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C81">
-        <v>12.656191835378916</v>
+        <v>23.065964959249875</v>
       </c>
       <c r="D81">
-        <v>12.656191835378916</v>
+        <v>23.065964959249875</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0.21091570328346246</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.40409798937433244</v>
       </c>
       <c r="G81">
-        <v>27.490251143986178</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>14.907279982932367</v>
+        <v>14.544533125135192</v>
       </c>
       <c r="J81">
-        <v>0.56046371434398412</v>
+        <v>0.66116388317625108</v>
       </c>
       <c r="K81" t="s">
         <v>131</v>
@@ -3346,16 +3353,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>300060096</v>
+        <v>300052667</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C82">
-        <v>22.239882779307052</v>
+        <v>8.6363391874450226</v>
       </c>
       <c r="D82">
-        <v>22.239882779307052</v>
+        <v>8.6363391874450226</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3364,13 +3371,13 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>30.553588081467556</v>
+        <v>18.541040228976101</v>
       </c>
       <c r="H82">
-        <v>31.147549692680649</v>
+        <v>20.408535401179083</v>
       </c>
       <c r="J82">
-        <v>0.56812526746392211</v>
+        <v>0.57417153017864309</v>
       </c>
       <c r="K82" t="s">
         <v>131</v>
@@ -3378,16 +3385,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>300060097</v>
+        <v>300052665</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C83">
-        <v>16.725259086522989</v>
+        <v>12.656191835378916</v>
       </c>
       <c r="D83">
-        <v>16.725259086522989</v>
+        <v>12.656191835378916</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3396,13 +3403,13 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>29.636632042379688</v>
+        <v>27.490251143986178</v>
       </c>
       <c r="H83">
-        <v>18.041250517825134</v>
+        <v>14.907279982932367</v>
       </c>
       <c r="J83">
-        <v>0.18624817590555051</v>
+        <v>0.56046371434398412</v>
       </c>
       <c r="K83" t="s">
         <v>131</v>
@@ -3410,16 +3417,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>300052720</v>
+        <v>300060096</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C84">
-        <v>18.975278738927418</v>
+        <v>22.239882779307052</v>
       </c>
       <c r="D84">
-        <v>18.975278738927418</v>
+        <v>22.239882779307052</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3428,13 +3435,13 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <v>136.07256775139905</v>
+        <v>30.553588081467556</v>
       </c>
       <c r="H84">
-        <v>118.30745682657715</v>
+        <v>31.147549692680649</v>
       </c>
       <c r="J84">
-        <v>0.70041299359065445</v>
+        <v>0.56812526746392211</v>
       </c>
       <c r="K84" t="s">
         <v>131</v>
@@ -3442,16 +3449,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>300052669</v>
+        <v>300060097</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C85">
-        <v>17.984434797074559</v>
+        <v>16.725259086522989</v>
       </c>
       <c r="D85">
-        <v>17.984434797074559</v>
+        <v>16.725259086522989</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3460,13 +3467,13 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>29.636632042379688</v>
       </c>
       <c r="H85">
-        <v>3.6718831303532213</v>
+        <v>18.041250517825134</v>
       </c>
       <c r="J85">
-        <v>0.68284580717545995</v>
+        <v>0.18624817590555051</v>
       </c>
       <c r="K85" t="s">
         <v>131</v>
@@ -3474,31 +3481,31 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>300052026</v>
+        <v>300052720</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C86">
-        <v>2.8600071747235116</v>
+        <v>18.975278738927418</v>
       </c>
       <c r="D86">
-        <v>2.8600071747235116</v>
+        <v>18.975278738927418</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>136.07256775139905</v>
       </c>
       <c r="H86">
-        <v>6.9844625421748479</v>
+        <v>118.30745682657715</v>
       </c>
       <c r="J86">
-        <v>0.73242571910294563</v>
+        <v>0.70041299359065445</v>
       </c>
       <c r="K86" t="s">
         <v>131</v>
@@ -3506,31 +3513,31 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>300052721</v>
+        <v>300052669</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C87">
-        <v>0.88881044962037792</v>
+        <v>17.984434797074559</v>
       </c>
       <c r="D87">
-        <v>0.88881044962037792</v>
+        <v>17.984434797074559</v>
       </c>
       <c r="E87">
-        <v>1.0100118745686115E-2</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>3.0300356237058335E-2</v>
+        <v>1</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>6.2286872485446487</v>
+        <v>3.6718831303532213</v>
       </c>
       <c r="J87">
-        <v>0.73370195317926656</v>
+        <v>0.68284580717545995</v>
       </c>
       <c r="K87" t="s">
         <v>131</v>
@@ -3538,31 +3545,31 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>300060095</v>
+        <v>300052026</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C88">
-        <v>11.901775264602485</v>
+        <v>2.8600071747235116</v>
       </c>
       <c r="D88">
-        <v>11.901775264602485</v>
+        <v>2.8600071747235116</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>70.296879101367864</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>74.070745702620627</v>
+        <v>6.9844625421748479</v>
       </c>
       <c r="J88">
-        <v>0.53526253345924224</v>
+        <v>0.73242571910294563</v>
       </c>
       <c r="K88" t="s">
         <v>131</v>
@@ -3570,31 +3577,31 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>300060196</v>
+        <v>300052721</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C89">
-        <v>8.2155612662353281</v>
+        <v>0.88881044962037792</v>
       </c>
       <c r="D89">
-        <v>8.2155612662353281</v>
+        <v>0.88881044962037792</v>
       </c>
       <c r="E89">
-        <v>0.89997594523452207</v>
+        <v>1.0100118745686115E-2</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>3.0300356237058335E-2</v>
       </c>
       <c r="G89">
-        <v>16.075718401926711</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>9.6195191495196717</v>
+        <v>6.2286872485446487</v>
       </c>
       <c r="J89">
-        <v>0.33517319835690473</v>
+        <v>0.73370195317926656</v>
       </c>
       <c r="K89" t="s">
         <v>131</v>
@@ -3602,31 +3609,31 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>300060197</v>
+        <v>300060095</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C90">
-        <v>5.2551819698394908</v>
+        <v>11.901775264602485</v>
       </c>
       <c r="D90">
-        <v>5.2551819698394908</v>
+        <v>11.901775264602485</v>
       </c>
       <c r="E90">
-        <v>0.9982979006718522</v>
+        <v>1</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90">
-        <v>17.328297931892699</v>
+        <v>70.296879101367864</v>
       </c>
       <c r="H90">
-        <v>13.706886532556389</v>
+        <v>74.070745702620627</v>
       </c>
       <c r="J90">
-        <v>0.39865654297357633</v>
+        <v>0.53526253345924224</v>
       </c>
       <c r="K90" t="s">
         <v>131</v>
@@ -3634,31 +3641,31 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>300060198</v>
+        <v>300060196</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C91">
-        <v>7.0425035557892626</v>
+        <v>8.2155612662353281</v>
       </c>
       <c r="D91">
-        <v>7.0425035557892626</v>
+        <v>8.2155612662353281</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0.89997594523452207</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
       <c r="G91">
-        <v>10.817408612703773</v>
+        <v>16.075718401926711</v>
       </c>
       <c r="H91">
-        <v>6.0064649208493517</v>
+        <v>9.6195191495196717</v>
       </c>
       <c r="J91">
-        <v>0.1447440402061087</v>
+        <v>0.33517319835690473</v>
       </c>
       <c r="K91" t="s">
         <v>131</v>
@@ -3666,31 +3673,31 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>300052642</v>
+        <v>300060197</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C92">
-        <v>24.48691273624425</v>
+        <v>5.2551819698394908</v>
       </c>
       <c r="D92">
-        <v>24.48691273624425</v>
+        <v>5.2551819698394908</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0.9982979006718522</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
-        <v>15.080320659262211</v>
+        <v>17.328297931892699</v>
       </c>
       <c r="H92">
-        <v>17.662391155346665</v>
+        <v>13.706886532556389</v>
       </c>
       <c r="J92">
-        <v>0.6617620398731674</v>
+        <v>0.39865654297357633</v>
       </c>
       <c r="K92" t="s">
         <v>131</v>
@@ -3698,16 +3705,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>300052622</v>
+        <v>300060198</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C93">
-        <v>29.941720682798714</v>
+        <v>7.0425035557892626</v>
       </c>
       <c r="D93">
-        <v>29.941720682798714</v>
+        <v>7.0425035557892626</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -3716,13 +3723,13 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>29.766301605641171</v>
+        <v>10.817408612703773</v>
       </c>
       <c r="H93">
-        <v>25.455487663164728</v>
+        <v>6.0064649208493517</v>
       </c>
       <c r="J93">
-        <v>0.64531311351659093</v>
+        <v>0.1447440402061087</v>
       </c>
       <c r="K93" t="s">
         <v>131</v>
@@ -3730,16 +3737,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>300052641</v>
+        <v>300052642</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C94">
-        <v>29.498793456109784</v>
+        <v>24.48691273624425</v>
       </c>
       <c r="D94">
-        <v>29.498793456109784</v>
+        <v>24.48691273624425</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3748,13 +3755,13 @@
         <v>1</v>
       </c>
       <c r="G94">
-        <v>12.844468482728514</v>
+        <v>15.080320659262211</v>
       </c>
       <c r="H94">
-        <v>12.725359868986899</v>
+        <v>17.662391155346665</v>
       </c>
       <c r="J94">
-        <v>0.76877983025393615</v>
+        <v>0.6617620398731674</v>
       </c>
       <c r="K94" t="s">
         <v>131</v>
@@ -3762,16 +3769,16 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>300052643</v>
+        <v>300052622</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C95">
-        <v>45.10210838298751</v>
+        <v>29.941720682798714</v>
       </c>
       <c r="D95">
-        <v>45.10210838298751</v>
+        <v>29.941720682798714</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3780,13 +3787,13 @@
         <v>1</v>
       </c>
       <c r="G95">
-        <v>12.303733411009878</v>
+        <v>29.766301605641171</v>
       </c>
       <c r="H95">
-        <v>14.501588042187278</v>
+        <v>25.455487663164728</v>
       </c>
       <c r="J95">
-        <v>0.87600750780146508</v>
+        <v>0.64531311351659093</v>
       </c>
       <c r="K95" t="s">
         <v>131</v>
@@ -3794,16 +3801,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>300052621</v>
+        <v>300052641</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C96">
-        <v>26.253727874757171</v>
+        <v>29.498793456109784</v>
       </c>
       <c r="D96">
-        <v>26.253727874757171</v>
+        <v>29.498793456109784</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3812,13 +3819,13 @@
         <v>1</v>
       </c>
       <c r="G96">
-        <v>4.3327023131912092</v>
+        <v>12.844468482728514</v>
       </c>
       <c r="H96">
-        <v>3.7429907466766736</v>
+        <v>12.725359868986899</v>
       </c>
       <c r="J96">
-        <v>0.59665923619578642</v>
+        <v>0.76877983025393615</v>
       </c>
       <c r="K96" t="s">
         <v>131</v>
@@ -3826,16 +3833,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>300047036</v>
+        <v>300052643</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C97">
-        <v>25.61025547715133</v>
+        <v>45.10210838298751</v>
       </c>
       <c r="D97">
-        <v>25.61025547715133</v>
+        <v>45.10210838298751</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3844,13 +3851,13 @@
         <v>1</v>
       </c>
       <c r="G97">
-        <v>11.750042953250329</v>
+        <v>12.303733411009878</v>
       </c>
       <c r="H97">
-        <v>11.277534670159266</v>
+        <v>14.501588042187278</v>
       </c>
       <c r="J97">
-        <v>0.67348762137680374</v>
+        <v>0.87600750780146508</v>
       </c>
       <c r="K97" t="s">
         <v>131</v>
@@ -3858,16 +3865,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>300047496</v>
+        <v>300052621</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C98">
-        <v>28.926758336001772</v>
+        <v>26.253727874757171</v>
       </c>
       <c r="D98">
-        <v>28.926758336001772</v>
+        <v>26.253727874757171</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3876,13 +3883,13 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <v>9.6299700363546457</v>
+        <v>4.3327023131912092</v>
       </c>
       <c r="H98">
-        <v>9.7192907300152775</v>
+        <v>3.7429907466766736</v>
       </c>
       <c r="J98">
-        <v>0.74805458566507688</v>
+        <v>0.59665923619578642</v>
       </c>
       <c r="K98" t="s">
         <v>131</v>
@@ -3890,16 +3897,16 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>300053042</v>
+        <v>300047036</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C99">
-        <v>18.891731137322942</v>
+        <v>25.61025547715133</v>
       </c>
       <c r="D99">
-        <v>18.891731137322942</v>
+        <v>25.61025547715133</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3908,13 +3915,13 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>2.7538236556698497</v>
+        <v>11.750042953250329</v>
       </c>
       <c r="H99">
-        <v>3.3425304345151057</v>
+        <v>11.277534670159266</v>
       </c>
       <c r="J99">
-        <v>0.65607779583856762</v>
+        <v>0.67348762137680374</v>
       </c>
       <c r="K99" t="s">
         <v>131</v>
@@ -3922,16 +3929,16 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>300053043</v>
+        <v>300047496</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C100">
-        <v>35.298333910910252</v>
+        <v>28.926758336001772</v>
       </c>
       <c r="D100">
-        <v>35.298333910910252</v>
+        <v>28.926758336001772</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3940,13 +3947,13 @@
         <v>1</v>
       </c>
       <c r="G100">
-        <v>5.1664117817825321</v>
+        <v>9.6299700363546457</v>
       </c>
       <c r="H100">
-        <v>6.0300110519025329</v>
+        <v>9.7192907300152775</v>
       </c>
       <c r="J100">
-        <v>0.65890426498412691</v>
+        <v>0.74805458566507688</v>
       </c>
       <c r="K100" t="s">
         <v>131</v>
@@ -3954,16 +3961,16 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>300033488</v>
+        <v>300053042</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C101">
-        <v>21.225022620575679</v>
+        <v>18.891731137322942</v>
       </c>
       <c r="D101">
-        <v>21.225022620575679</v>
+        <v>18.891731137322942</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3972,30 +3979,30 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>4.8468493397043293</v>
+        <v>2.7538236556698497</v>
       </c>
       <c r="H101">
-        <v>4.5497561547539442</v>
+        <v>3.3425304345151057</v>
       </c>
       <c r="J101">
-        <v>0.71001607341629147</v>
+        <v>0.65607779583856762</v>
       </c>
       <c r="K101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>300052821</v>
+        <v>300053043</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C102">
-        <v>26.382063351723637</v>
+        <v>35.298333910910252</v>
       </c>
       <c r="D102">
-        <v>26.382063351723637</v>
+        <v>35.298333910910252</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -4004,45 +4011,45 @@
         <v>1</v>
       </c>
       <c r="G102">
-        <v>18.063167515939096</v>
+        <v>5.1664117817825321</v>
       </c>
       <c r="H102">
-        <v>15.884236758114259</v>
+        <v>6.0300110519025329</v>
       </c>
       <c r="J102">
-        <v>0.69472648689669081</v>
+        <v>0.65890426498412691</v>
       </c>
       <c r="K102" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>300052820</v>
+        <v>300033488</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C103">
-        <v>29.650569693652173</v>
+        <v>21.225022620575679</v>
       </c>
       <c r="D103">
-        <v>29.650569693652173</v>
+        <v>21.225022620575679</v>
       </c>
       <c r="E103">
-        <v>0.92698814314747791</v>
+        <v>1</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
       <c r="G103">
-        <v>14.847300884985604</v>
+        <v>4.8468493397043293</v>
       </c>
       <c r="H103">
-        <v>13.917313426476102</v>
+        <v>4.5497561547539442</v>
       </c>
       <c r="J103">
-        <v>0.59120375807210246</v>
+        <v>0.71001607341629147</v>
       </c>
       <c r="K103" t="s">
         <v>132</v>
@@ -4050,16 +4057,16 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>300033489</v>
+        <v>300052821</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C104">
-        <v>22.547367700023656</v>
+        <v>26.382063351723637</v>
       </c>
       <c r="D104">
-        <v>22.547367700023656</v>
+        <v>26.382063351723637</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -4068,13 +4075,13 @@
         <v>1</v>
       </c>
       <c r="G104">
-        <v>12.241573660605102</v>
+        <v>18.063167515939096</v>
       </c>
       <c r="H104">
-        <v>13.061376029621115</v>
+        <v>15.884236758114259</v>
       </c>
       <c r="J104">
-        <v>0.7552037379239388</v>
+        <v>0.69472648689669081</v>
       </c>
       <c r="K104" t="s">
         <v>132</v>
@@ -4082,31 +4089,31 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>300052756</v>
+        <v>300052820</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C105">
-        <v>20.472235606031322</v>
+        <v>29.650569693652173</v>
       </c>
       <c r="D105">
-        <v>20.472235606031322</v>
+        <v>29.650569693652173</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0.92698814314747791</v>
       </c>
       <c r="F105">
         <v>1</v>
       </c>
       <c r="G105">
-        <v>27.651273600564792</v>
+        <v>14.847300884985604</v>
       </c>
       <c r="H105">
-        <v>26.998902153532647</v>
+        <v>13.917313426476102</v>
       </c>
       <c r="J105">
-        <v>0.72811849490064595</v>
+        <v>0.59120375807210246</v>
       </c>
       <c r="K105" t="s">
         <v>132</v>
@@ -4114,16 +4121,16 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>300052757</v>
+        <v>300033489</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C106">
-        <v>21.491901882677574</v>
+        <v>22.547367700023656</v>
       </c>
       <c r="D106">
-        <v>21.491901882677574</v>
+        <v>22.547367700023656</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -4132,13 +4139,13 @@
         <v>1</v>
       </c>
       <c r="G106">
-        <v>32.512145673885698</v>
+        <v>12.241573660605102</v>
       </c>
       <c r="H106">
-        <v>31.576614024139818</v>
+        <v>13.061376029621115</v>
       </c>
       <c r="J106">
-        <v>0.56101670642891466</v>
+        <v>0.7552037379239388</v>
       </c>
       <c r="K106" t="s">
         <v>132</v>
@@ -4146,16 +4153,16 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>300058720</v>
+        <v>300052756</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C107">
-        <v>20.386036779460149</v>
+        <v>20.472235606031322</v>
       </c>
       <c r="D107">
-        <v>21.58799304356814</v>
+        <v>20.472235606031322</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -4164,13 +4171,13 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <v>12.235839946746918</v>
+        <v>27.651273600564792</v>
       </c>
       <c r="H107">
-        <v>12.016497172710006</v>
+        <v>26.998902153532647</v>
       </c>
       <c r="J107">
-        <v>0.54879558537047102</v>
+        <v>0.72811849490064595</v>
       </c>
       <c r="K107" t="s">
         <v>132</v>
@@ -4178,16 +4185,16 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>300058721</v>
+        <v>300052757</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C108">
-        <v>20.820473901341472</v>
+        <v>21.491901882677574</v>
       </c>
       <c r="D108">
-        <v>20.820473901341472</v>
+        <v>21.491901882677574</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -4196,13 +4203,13 @@
         <v>1</v>
       </c>
       <c r="G108">
-        <v>9.7947044064770097</v>
+        <v>32.512145673885698</v>
       </c>
       <c r="H108">
-        <v>10.576220978135083</v>
+        <v>31.576614024139818</v>
       </c>
       <c r="J108">
-        <v>0.68433640172259635</v>
+        <v>0.56101670642891466</v>
       </c>
       <c r="K108" t="s">
         <v>132</v>
@@ -4210,16 +4217,16 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>300058740</v>
+        <v>300058720</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C109">
-        <v>38.412323176893601</v>
+        <v>20.386036779460149</v>
       </c>
       <c r="D109">
-        <v>38.412323176893601</v>
+        <v>21.58799304356814</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -4228,13 +4235,13 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>2.4208341053591829</v>
+        <v>12.235839946746918</v>
       </c>
       <c r="H109">
-        <v>2.5302886378895879</v>
+        <v>12.016497172710006</v>
       </c>
       <c r="J109">
-        <v>0.65459788863513668</v>
+        <v>0.54879558537047102</v>
       </c>
       <c r="K109" t="s">
         <v>132</v>
@@ -4242,83 +4249,83 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>300055380</v>
+        <v>300058721</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="C110">
+        <v>20.820473901341472</v>
+      </c>
+      <c r="D110">
+        <v>20.820473901341472</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>9.7947044064770097</v>
       </c>
       <c r="H110">
-        <v>0.81257997445251573</v>
+        <v>10.576220978135083</v>
       </c>
       <c r="J110">
-        <v>1.0090206819980063</v>
+        <v>0.68433640172259635</v>
       </c>
       <c r="K110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>300055184</v>
+        <v>300058740</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C111">
-        <v>103.24998119872268</v>
+        <v>38.412323176893601</v>
       </c>
       <c r="D111">
-        <v>103.24998119872268</v>
+        <v>38.412323176893601</v>
       </c>
       <c r="E111">
-        <v>0.14682822212337696</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>0.14682822212337696</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>2.4208341053591829</v>
       </c>
       <c r="H111">
-        <v>1.5406625242796335</v>
+        <v>2.5302886378895879</v>
       </c>
       <c r="J111">
-        <v>0.6996989821012487</v>
+        <v>0.65459788863513668</v>
       </c>
       <c r="K111" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>300055183</v>
+        <v>300055380</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
-      </c>
-      <c r="C112">
-        <v>77.103673918995909</v>
-      </c>
-      <c r="D112">
-        <v>77.103673918995909</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-      <c r="F112">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>2.8610484303567847</v>
+        <v>0.81257997445251573</v>
       </c>
       <c r="J112">
-        <v>0.96784799957220113</v>
+        <v>1.0090206819980063</v>
       </c>
       <c r="K112" t="s">
         <v>133</v>
@@ -4326,31 +4333,31 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>300060199</v>
+        <v>300055184</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C113">
+        <v>103.24998119872268</v>
+      </c>
+      <c r="D113">
+        <v>103.24998119872268</v>
+      </c>
+      <c r="E113">
+        <v>0.14682822212337696</v>
+      </c>
+      <c r="F113">
+        <v>0.14682822212337696</v>
+      </c>
+      <c r="G113">
         <v>0</v>
       </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>6.0476512229399599</v>
-      </c>
       <c r="H113">
-        <v>4.2872085327206602</v>
+        <v>1.5406625242796335</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>0.6996989821012487</v>
       </c>
       <c r="K113" t="s">
         <v>133</v>
@@ -4358,16 +4365,16 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>300060200</v>
+        <v>300055183</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C114">
-        <v>12.845715465998294</v>
+        <v>77.103673918995909</v>
       </c>
       <c r="D114">
-        <v>12.845715465998294</v>
+        <v>77.103673918995909</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -4376,13 +4383,13 @@
         <v>1</v>
       </c>
       <c r="G114">
-        <v>10.657267770335686</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>6.9737625468398523</v>
+        <v>2.8610484303567847</v>
       </c>
       <c r="J114">
-        <v>0.49104052181297175</v>
+        <v>0.96784799957220113</v>
       </c>
       <c r="K114" t="s">
         <v>133</v>
@@ -4390,33 +4397,97 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
+        <v>300060199</v>
+      </c>
+      <c r="B115" t="s">
+        <v>111</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>6.0476512229399599</v>
+      </c>
+      <c r="H115">
+        <v>4.2872085327206602</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="8">
+        <v>300060200</v>
+      </c>
+      <c r="B116" t="s">
+        <v>112</v>
+      </c>
+      <c r="C116">
+        <v>12.845715465998294</v>
+      </c>
+      <c r="D116">
+        <v>12.845715465998294</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>10.657267770335686</v>
+      </c>
+      <c r="H116">
+        <v>6.9737625468398523</v>
+      </c>
+      <c r="J116">
+        <v>0.49104052181297175</v>
+      </c>
+      <c r="K116" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="8">
         <v>300060201</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
         <v>113</v>
       </c>
-      <c r="C115">
+      <c r="C117">
         <v>6.0177825162997562</v>
       </c>
-      <c r="D115">
+      <c r="D117">
         <v>6.0177825162997562</v>
       </c>
-      <c r="E115">
+      <c r="E117">
         <v>0.7389413127895893</v>
       </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115">
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
         <v>5.4822787227163587</v>
       </c>
-      <c r="H115">
+      <c r="H117">
         <v>3.8421358221807487</v>
       </c>
-      <c r="J115">
+      <c r="J117">
         <v>1.0728714940796489</v>
       </c>
-      <c r="K115" t="s">
+      <c r="K117" t="s">
         <v>133</v>
       </c>
     </row>
